--- a/tables/database.xlsx
+++ b/tables/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>KEGG</t>
   </si>
@@ -72,25 +72,7 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>https://www.genome.jp/kegg/</t>
-  </si>
-  <si>
     <t>http://www.hmdb.ca/</t>
-  </si>
-  <si>
-    <t>Wishart et al.2</t>
-  </si>
-  <si>
-    <t>Fahy et al.3</t>
-  </si>
-  <si>
-    <t>Jeffryes et al.4</t>
-  </si>
-  <si>
-    <t>Wishart et al.5</t>
-  </si>
-  <si>
-    <t>Grulke et al.6</t>
   </si>
   <si>
     <t>https://www.lipidmaps.org/</t>
@@ -109,11 +91,33 @@
     <t>https://comptox.epa.gov/dashboard</t>
   </si>
   <si>
-    <t>Gu et al.7</t>
+    <t>https://www.genome.jp/kegg/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kanehisa et al.1</t>
+    <t>@reference1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@reference2</t>
+  </si>
+  <si>
+    <t>@reference3</t>
+  </si>
+  <si>
+    <t>@reference4</t>
+  </si>
+  <si>
+    <t>@reference5</t>
+  </si>
+  <si>
+    <t>@reference6</t>
+  </si>
+  <si>
+    <t>@reference7</t>
+  </si>
+  <si>
+    <t>@reference10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -169,13 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,7 +464,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -508,11 +513,11 @@
       <c r="E2" s="1">
         <v>43314</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -532,11 +537,11 @@
       <c r="E3" s="1">
         <v>43260</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -556,11 +561,11 @@
       <c r="E4" s="1">
         <v>43657</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -580,11 +585,11 @@
       <c r="E5" s="1">
         <v>43138</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -604,11 +609,11 @@
       <c r="E6" s="1">
         <v>43567</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -628,11 +633,11 @@
       <c r="E7" s="1">
         <v>43591</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -652,8 +657,8 @@
       <c r="E8" s="1">
         <v>43629</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -674,7 +679,9 @@
       <c r="E9" s="1">
         <v>43345</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
@@ -684,5 +691,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>